--- a/models/init/tangyin/fudao/huiquan.xlsx
+++ b/models/init/tangyin/fudao/huiquan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhp/WebstormProjects/fupin/models/init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhp/WebstormProjects/fupin/models/init/tangyin/fudao/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,15 +37,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expense</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,29 +389,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>222123</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>456</v>
+        <v>222456</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>20</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
